--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41588.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.94</v>
+        <v>4.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.16</v>
+        <v>3.72</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.01</v>
+        <v>5.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>247.88</v>
+        <v>24.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.67</v>
+        <v>4.67</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.85</v>
+        <v>3.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.41</v>
+        <v>2.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.68</v>
+        <v>4.87</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41588.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.46</v>
+        <v>3.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.63</v>
+        <v>3.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.49</v>
+        <v>5.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>212.43</v>
+        <v>21.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.41</v>
+        <v>4.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.24</v>
+        <v>2.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.25</v>
+        <v>5.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41588.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>1.37</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>54.13</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>13.69</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>200.99</v>
+        <v>20.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.29</v>
+        <v>3.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.59</v>
+        <v>2.56</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.98</v>
+        <v>2.6</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.05</v>
+        <v>4.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41588.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.98</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.83</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>40.07</v>
+        <v>4.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>141.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.97</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.37</v>
+        <v>3.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41588.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>24.13</v>
+        <v>2.41</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>76.23</v>
+        <v>7.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41588.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>39.5</v>
+        <v>3.95</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.65</v>
+        <v>3.26</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>52.98</v>
+        <v>5.3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.11</v>
+        <v>2.21</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.33</v>
+        <v>2.03</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>210.13</v>
+        <v>21.01</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>39.87</v>
+        <v>3.99</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.82</v>
+        <v>2.68</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>47.89</v>
+        <v>4.79</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41588.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>35.56</v>
+        <v>3.56</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.39</v>
+        <v>2.94</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.87</v>
+        <v>5.09</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.9</v>
+        <v>1.99</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>188.4</v>
+        <v>18.84</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>35.99</v>
+        <v>3.6</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.6</v>
+        <v>2.46</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>46.22</v>
+        <v>4.62</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41588.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.31</v>
+        <v>2.93</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.22</v>
+        <v>2.42</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>42.72</v>
+        <v>4.27</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>154.06</v>
+        <v>15.41</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>29.69</v>
+        <v>2.97</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>38.79</v>
+        <v>3.88</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41588.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.45</v>
+        <v>2.54</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>43.8</v>
+        <v>4.38</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>162.06</v>
+        <v>16.21</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>31.13</v>
+        <v>3.11</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>39.72</v>
+        <v>3.97</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41588.34027777778</v>
+        <v>44837.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.14</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.49</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.72</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.5</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.68</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.35</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.79</v>
+        <v>14.71</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.67</v>
+        <v>2.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.08</v>
+        <v>1.8</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.92</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.74</v>
+        <v>1.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.37</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.87</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.93</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41588.34722222222</v>
+        <v>44837.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.95</v>
+        <v>3.23</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>3.26</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.04</v>
-      </c>
       <c r="V3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.69</v>
+        <v>2.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.13</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41588.35416666666</v>
+        <v>44837.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.76</v>
+        <v>4.39</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.11</v>
+        <v>3.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.41</v>
+        <v>6.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.1</v>
+        <v>23.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.83</v>
+        <v>4.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.6</v>
+        <v>2.97</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.9</v>
+        <v>5.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41588.36111111111</v>
+        <v>44837.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.01</v>
+        <v>4.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.15</v>
+        <v>15.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.95</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41588.36805555555</v>
+        <v>44837.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.7</v>
+        <v>24.41</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.5</v>
+        <v>18.23</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.5</v>
+        <v>53.3</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.24</v>
+        <v>43.56</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.55</v>
+        <v>19.17</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.41</v>
+        <v>73.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.85</v>
+        <v>29.67</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.37</v>
+        <v>13.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.55</v>
+        <v>19.54</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.61</v>
+        <v>21.38</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.64</v>
+        <v>22.71</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.18</v>
+        <v>6.16</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.55</v>
+        <v>19.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.78</v>
+        <v>27.31</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.48</v>
+        <v>16.12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.71</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.9</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.62</v>
+        <v>284.54</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.55</v>
+        <v>53.59</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.51</v>
+        <v>17.7</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.03</v>
+        <v>36.07</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.55</v>
+        <v>18.92</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.08</v>
+        <v>2.75</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.13</v>
+        <v>35.92</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.45</v>
+        <v>15.63</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.41</v>
+        <v>13.83</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.47</v>
+        <v>16.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.64</v>
+        <v>22.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.2</v>
+        <v>66.52</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.28</v>
+        <v>9.98</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41588.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41588.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41588.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41588.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41588.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>37.81</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>135.74</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>10.85</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -446,12 +446,12 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -463,7 +463,7 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,103 +655,103 @@
         <v>44837.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44837.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.56</v>
+        <v>25.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.01</v>
+        <v>170.07</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.26</v>
+        <v>32.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.76</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4</v>
+        <v>39.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44837.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.05</v>
+        <v>60.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.38</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.46</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.3</v>
+        <v>233.03</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.41</v>
+        <v>44.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.97</v>
+        <v>29.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.52</v>
+        <v>55.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44837.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.93</v>
+        <v>29.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.32</v>
+        <v>43.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.29</v>
+        <v>152.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.95</v>
+        <v>29.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.94</v>
+        <v>39.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44837.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.74</v>
+        <v>14.739</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.63</v>
+        <v>10.633</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.34</v>
+        <v>32.339</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.56</v>
+        <v>25.561</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.48</v>
+        <v>11.475</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.56</v>
+        <v>43.562</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.74</v>
+        <v>7.744</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.27</v>
+        <v>11.271</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.91</v>
+        <v>12.911</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.82</v>
+        <v>13.817</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.37</v>
+        <v>16.366</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.17</v>
+        <v>10.169</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.965</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.07</v>
+        <v>170.072</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.59</v>
+        <v>32.585</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.51</v>
+        <v>21.509</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.2</v>
+        <v>11.203</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.12</v>
+        <v>2.118</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.76</v>
+        <v>21.759</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.6</v>
+        <v>8.599</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.13</v>
+        <v>10.126</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.49</v>
+        <v>13.489</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.98</v>
+        <v>39.983</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.89</v>
+        <v>5.891</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>13.45</v>
@@ -863,28 +863,28 @@
         <v>44837.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.05</v>
+        <v>20.053</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.82</v>
+        <v>14.822</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.426</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.88</v>
+        <v>43.877</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.47</v>
+        <v>35.465</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>15.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.52</v>
+        <v>60.521</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>10.75</v>
@@ -893,73 +893,73 @@
         <v>15.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.58</v>
+        <v>17.576</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.73</v>
+        <v>18.725</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.072</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.38</v>
+        <v>22.383</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.46</v>
+        <v>13.455</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.994</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>233.03</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.15</v>
+        <v>44.145</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.52</v>
+        <v>29.515</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.45</v>
+        <v>15.453</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.71</v>
+        <v>29.706</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.48</v>
+        <v>11.483</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.51</v>
+        <v>13.508</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.43</v>
+        <v>18.429</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>55.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44837.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.07</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44837.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.868</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.26</v>
+        <v>29.256</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.57</v>
+        <v>23.568</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.45</v>
+        <v>10.446</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>43.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.48</v>
+        <v>10.478</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.72</v>
+        <v>11.723</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.51</v>
+        <v>12.512</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.01</v>
+        <v>9.013999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.92</v>
+        <v>152.917</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.51</v>
+        <v>29.509</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>19.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.293</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.68</v>
+        <v>1.676</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.72</v>
+        <v>20.721</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.68</v>
+        <v>7.677</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.29</v>
+        <v>12.292</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.43</v>
+        <v>39.433</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.4</v>
+        <v>5.401</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44837.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>284.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_156.xlsx
+++ b/DATA_goal/Junction_Flooding_156.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44837.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.347</v>
+        <v>13.35</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.868</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.256</v>
+        <v>29.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.568</v>
+        <v>23.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.446</v>
+        <v>10.45</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>43.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.288</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.478</v>
+        <v>10.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.723</v>
+        <v>11.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.512</v>
+        <v>12.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.383</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.527</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.013999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.917</v>
+        <v>152.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.509</v>
+        <v>29.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>19.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.293</v>
+        <v>10.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.676</v>
+        <v>1.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.721</v>
+        <v>20.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.583</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.677</v>
+        <v>7.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.023999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.292</v>
+        <v>12.29</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.433</v>
+        <v>39.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.401</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.148</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44837.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.07</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
